--- a/data/derived/public/q6_coding_jh.xlsx
+++ b/data/derived/public/q6_coding_jh.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josephh\Documents\GitHub\HEGSRR\OR-Replicability-in-Geography-Survey\data\derived\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkedron\Documents\GitHub\OR-Replicability-in-Geography-Survey\data\derived\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29397F6E-412B-4204-A572-4A5C4F101B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21490" yWindow="1390" windowWidth="28540" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21495" yWindow="1395" windowWidth="28545" windowHeight="19230"/>
   </bookViews>
   <sheets>
     <sheet name="q6_coding_jh" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">q6_coding_jh!$A$1:$U$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">q6_coding_jh!$A$1:$W$284</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="616">
   <si>
     <t>ResponseId</t>
   </si>
@@ -1814,11 +1813,122 @@
   <si>
     <t>done</t>
   </si>
+  <si>
+    <t>pk-flag</t>
+  </si>
+  <si>
+    <t>pk-comment</t>
+  </si>
+  <si>
+    <t>perhaps add epist given the preamble</t>
+  </si>
+  <si>
+    <t>No explicit mention of context. If you swap in the word reproduce you would infer the opposite context coding.</t>
+  </si>
+  <si>
+    <t>need open-repeat?</t>
+  </si>
+  <si>
+    <t>extrapolate -&gt; external valid?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would exclude from the coding because it is thinking about the concept in several interesting and surprising ways. I don't totally get 2, but three seems to emphasize the applied value of replicating. No what the Q really asked about in our minds. </t>
+  </si>
+  <si>
+    <t>Agree, but not sure if we can say framework=method. Seems an applied outcome focus maybe.</t>
+  </si>
+  <si>
+    <t>open-repeat?</t>
+  </si>
+  <si>
+    <t>epist?</t>
+  </si>
+  <si>
+    <t>drop same data? Add Open-repeat?</t>
+  </si>
+  <si>
+    <t>don't think can read as context</t>
+  </si>
+  <si>
+    <t>maybe ext-valid?</t>
+  </si>
+  <si>
+    <t>open repeat?</t>
+  </si>
+  <si>
+    <t>methods same?</t>
+  </si>
+  <si>
+    <t>context?</t>
+  </si>
+  <si>
+    <t>feels like reproduction</t>
+  </si>
+  <si>
+    <t>internal or external</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>methods or results same?</t>
+  </si>
+  <si>
+    <t>could be internal valid</t>
+  </si>
+  <si>
+    <t>add similar result</t>
+  </si>
+  <si>
+    <t>repro</t>
+  </si>
+  <si>
+    <t>could be sim result</t>
+  </si>
+  <si>
+    <t>method same</t>
+  </si>
+  <si>
+    <t>unclear. Drop?</t>
+  </si>
+  <si>
+    <t>repro?</t>
+  </si>
+  <si>
+    <t>add context</t>
+  </si>
+  <si>
+    <t>add new data, new context</t>
+  </si>
+  <si>
+    <t>can't tell same/sim result</t>
+  </si>
+  <si>
+    <t>add data new</t>
+  </si>
+  <si>
+    <t>same/sim result?</t>
+  </si>
+  <si>
+    <t>data=result?</t>
+  </si>
+  <si>
+    <t>sim results</t>
+  </si>
+  <si>
+    <t>tricky</t>
+  </si>
+  <si>
+    <t>same method</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2296,8 +2406,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2652,43 +2765,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U284"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="V285" sqref="V285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>575</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -2745,15 +2847,21 @@
       <c r="U1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>579</v>
+      </c>
+      <c r="W1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D2">
@@ -2785,14 +2893,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3">
@@ -2809,14 +2917,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4">
@@ -2842,14 +2950,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5">
@@ -2872,14 +2980,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D6">
@@ -2905,14 +3013,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>134</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D7">
@@ -2938,14 +3046,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>162</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D8">
@@ -2968,14 +3076,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>217</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D9">
@@ -2998,14 +3106,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>114</v>
       </c>
       <c r="B10" t="s">
         <v>227</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D10">
@@ -3034,14 +3142,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>234</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D11">
@@ -3073,14 +3181,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>284</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D12">
@@ -3106,14 +3214,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>207</v>
       </c>
       <c r="B13" t="s">
         <v>409</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>410</v>
       </c>
       <c r="D13">
@@ -3136,14 +3244,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>215</v>
       </c>
       <c r="B14" t="s">
         <v>425</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>426</v>
       </c>
       <c r="D14">
@@ -3169,14 +3277,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>219</v>
       </c>
       <c r="B15" t="s">
         <v>432</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D15">
@@ -3205,14 +3313,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>483</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>484</v>
       </c>
       <c r="D16">
@@ -3238,14 +3346,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>485</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>486</v>
       </c>
       <c r="D17">
@@ -3271,14 +3379,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>522</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>523</v>
       </c>
       <c r="D18">
@@ -3304,14 +3412,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>276</v>
       </c>
       <c r="B19" t="s">
         <v>546</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>547</v>
       </c>
       <c r="D19">
@@ -3333,15 +3441,18 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>554</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>555</v>
       </c>
       <c r="D20">
@@ -3360,15 +3471,18 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21">
@@ -3390,15 +3504,21 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D22">
@@ -3417,15 +3537,18 @@
       <c r="P22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D23">
@@ -3441,15 +3564,18 @@
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D24">
@@ -3465,15 +3591,18 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D25">
@@ -3492,15 +3621,18 @@
       <c r="P25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D26">
@@ -3516,15 +3648,18 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D27">
@@ -3546,15 +3681,18 @@
       <c r="P27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D28">
@@ -3573,15 +3711,18 @@
       <c r="P28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D29">
@@ -3603,15 +3744,18 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D30">
@@ -3630,15 +3774,18 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>146</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D31">
@@ -3654,15 +3801,21 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>166</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D32">
@@ -3678,15 +3831,18 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>182</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D33">
@@ -3711,15 +3867,18 @@
       <c r="P33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>188</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D34">
@@ -3735,15 +3894,21 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>190</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D35">
@@ -3765,15 +3930,21 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>198</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D36">
@@ -3798,15 +3969,18 @@
       <c r="S36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>101</v>
       </c>
       <c r="B37" t="s">
         <v>202</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D37">
@@ -3843,15 +4017,18 @@
       <c r="S37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>113</v>
       </c>
       <c r="B38" t="s">
         <v>225</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D38">
@@ -3867,15 +4044,21 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>115</v>
       </c>
       <c r="B39" t="s">
         <v>229</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D39">
@@ -3903,15 +4086,18 @@
       <c r="U39" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>243</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D40">
@@ -3930,15 +4116,18 @@
       <c r="O40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>259</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D41">
@@ -3954,15 +4143,21 @@
       <c r="I41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>136</v>
       </c>
       <c r="B42" t="s">
         <v>273</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D42">
@@ -3981,15 +4176,18 @@
       <c r="P42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>145</v>
       </c>
       <c r="B43" t="s">
         <v>290</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>291</v>
       </c>
       <c r="D43">
@@ -4008,15 +4206,18 @@
       <c r="O43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>159</v>
       </c>
       <c r="B44" t="s">
         <v>318</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>319</v>
       </c>
       <c r="D44">
@@ -4032,15 +4233,18 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>160</v>
       </c>
       <c r="B45" t="s">
         <v>320</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D45">
@@ -4056,15 +4260,18 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>165</v>
       </c>
       <c r="B46" t="s">
         <v>328</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>329</v>
       </c>
       <c r="D46">
@@ -4083,15 +4290,18 @@
       <c r="O46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>170</v>
       </c>
       <c r="B47" t="s">
         <v>339</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D47">
@@ -4107,15 +4317,18 @@
       <c r="I47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>178</v>
       </c>
       <c r="B48" t="s">
         <v>353</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>354</v>
       </c>
       <c r="D48">
@@ -4134,15 +4347,18 @@
       <c r="O48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>190</v>
       </c>
       <c r="B49" t="s">
         <v>376</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D49">
@@ -4161,15 +4377,18 @@
       <c r="O49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>382</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D50">
@@ -4188,15 +4407,21 @@
       <c r="U50" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>211</v>
       </c>
       <c r="B51" t="s">
         <v>417</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D51">
@@ -4212,15 +4437,18 @@
       <c r="J51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>214</v>
       </c>
       <c r="B52" t="s">
         <v>423</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>424</v>
       </c>
       <c r="D52">
@@ -4236,15 +4464,21 @@
       <c r="I52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>221</v>
       </c>
       <c r="B53" t="s">
         <v>436</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D53">
@@ -4260,15 +4494,21 @@
       <c r="I53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>225</v>
       </c>
       <c r="B54" t="s">
         <v>444</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>445</v>
       </c>
       <c r="D54">
@@ -4284,15 +4524,21 @@
       <c r="J54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>226</v>
       </c>
       <c r="B55" t="s">
         <v>446</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>447</v>
       </c>
       <c r="D55">
@@ -4314,15 +4560,21 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>228</v>
       </c>
       <c r="B56" t="s">
         <v>450</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>451</v>
       </c>
       <c r="D56">
@@ -4344,15 +4596,18 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>238</v>
       </c>
       <c r="B57" t="s">
         <v>470</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>471</v>
       </c>
       <c r="D57">
@@ -4374,15 +4629,21 @@
       <c r="U57" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>254</v>
       </c>
       <c r="B58" t="s">
         <v>502</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>503</v>
       </c>
       <c r="D58">
@@ -4404,15 +4665,18 @@
       <c r="M58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>255</v>
       </c>
       <c r="B59" t="s">
         <v>504</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>505</v>
       </c>
       <c r="D59">
@@ -4434,15 +4698,18 @@
       <c r="S59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>257</v>
       </c>
       <c r="B60" t="s">
         <v>508</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>509</v>
       </c>
       <c r="D60">
@@ -4458,15 +4725,21 @@
       <c r="J60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>263</v>
       </c>
       <c r="B61" t="s">
         <v>520</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D61">
@@ -4482,15 +4755,18 @@
       <c r="J61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>267</v>
       </c>
       <c r="B62" t="s">
         <v>528</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>529</v>
       </c>
       <c r="D62">
@@ -4506,15 +4782,18 @@
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>268</v>
       </c>
       <c r="B63" t="s">
         <v>530</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>531</v>
       </c>
       <c r="D63">
@@ -4530,15 +4809,18 @@
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>270</v>
       </c>
       <c r="B64" t="s">
         <v>534</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>535</v>
       </c>
       <c r="D64">
@@ -4554,15 +4836,18 @@
       <c r="J64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>275</v>
       </c>
       <c r="B65" t="s">
         <v>544</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>545</v>
       </c>
       <c r="D65">
@@ -4578,15 +4863,18 @@
       <c r="I65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>277</v>
       </c>
       <c r="B66" t="s">
         <v>548</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>549</v>
       </c>
       <c r="D66">
@@ -4602,15 +4890,21 @@
       <c r="J66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>279</v>
       </c>
       <c r="B67" t="s">
         <v>552</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>553</v>
       </c>
       <c r="D67">
@@ -4626,15 +4920,18 @@
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>283</v>
       </c>
       <c r="B68" t="s">
         <v>559</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>560</v>
       </c>
       <c r="D68">
@@ -4653,15 +4950,18 @@
       <c r="P68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D69">
@@ -4680,15 +4980,18 @@
       <c r="L69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
       <c r="B70" t="s">
         <v>29</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D70">
@@ -4707,15 +5010,18 @@
       <c r="M70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
       <c r="B71" t="s">
         <v>33</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D71">
@@ -4743,15 +5049,18 @@
       <c r="O71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D72">
@@ -4773,15 +5082,18 @@
       <c r="O72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>39</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D73">
@@ -4794,15 +5106,18 @@
       <c r="J73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23</v>
       </c>
       <c r="B74" t="s">
         <v>47</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D74">
@@ -4821,15 +5136,18 @@
       <c r="L74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>34</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D75">
@@ -4845,15 +5163,18 @@
       <c r="O75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>39</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D76">
@@ -4881,15 +5202,18 @@
       <c r="Q76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>44</v>
       </c>
       <c r="B77" t="s">
         <v>89</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D77">
@@ -4905,15 +5229,18 @@
       <c r="O77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>46</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D78">
@@ -4926,15 +5253,18 @@
       <c r="I78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>60</v>
       </c>
       <c r="B79" t="s">
         <v>121</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D79">
@@ -4953,15 +5283,21 @@
       <c r="P79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>66</v>
       </c>
       <c r="B80" t="s">
         <v>132</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D80">
@@ -4977,15 +5313,18 @@
       <c r="P80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>72</v>
       </c>
       <c r="B81" t="s">
         <v>144</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D81">
@@ -5010,15 +5349,18 @@
       <c r="P81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>77</v>
       </c>
       <c r="B82" t="s">
         <v>154</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D82">
@@ -5040,15 +5382,18 @@
       <c r="P82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>158</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D83">
@@ -5064,15 +5409,21 @@
       <c r="P83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>168</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D84">
@@ -5088,15 +5439,18 @@
       <c r="P84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D85">
@@ -5115,15 +5469,18 @@
       <c r="Q85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>174</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D86">
@@ -5139,15 +5496,18 @@
       <c r="P86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>184</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D87">
@@ -5163,15 +5523,18 @@
       <c r="O87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>98</v>
       </c>
       <c r="B88" t="s">
         <v>196</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>197</v>
       </c>
       <c r="D88">
@@ -5196,15 +5559,18 @@
       <c r="R88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>106</v>
       </c>
       <c r="B89" t="s">
         <v>211</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D89">
@@ -5223,15 +5589,18 @@
       <c r="P89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>221</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D90">
@@ -5250,15 +5619,18 @@
       <c r="M90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>119</v>
       </c>
       <c r="B91" t="s">
         <v>239</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D91">
@@ -5280,15 +5652,18 @@
       <c r="O91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>125</v>
       </c>
       <c r="B92" t="s">
         <v>251</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D92">
@@ -5304,15 +5679,18 @@
       <c r="O92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>127</v>
       </c>
       <c r="B93" t="s">
         <v>255</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D93">
@@ -5331,15 +5709,18 @@
       <c r="S93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>137</v>
       </c>
       <c r="B94" t="s">
         <v>275</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D94">
@@ -5355,15 +5736,18 @@
       <c r="O94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>138</v>
       </c>
       <c r="B95" t="s">
         <v>277</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D95">
@@ -5388,15 +5772,18 @@
       <c r="L95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>139</v>
       </c>
       <c r="B96" t="s">
         <v>279</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>280</v>
       </c>
       <c r="D96">
@@ -5412,15 +5799,18 @@
       <c r="O96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>140</v>
       </c>
       <c r="B97" t="s">
         <v>281</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D97">
@@ -5442,15 +5832,18 @@
       <c r="O97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>149</v>
       </c>
       <c r="B98" t="s">
         <v>298</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D98">
@@ -5469,15 +5862,18 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>154</v>
       </c>
       <c r="B99" t="s">
         <v>308</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D99">
@@ -5493,15 +5889,18 @@
       <c r="O99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>155</v>
       </c>
       <c r="B100" t="s">
         <v>310</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D100">
@@ -5520,15 +5919,21 @@
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>156</v>
       </c>
       <c r="B101" t="s">
         <v>312</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>313</v>
       </c>
       <c r="D101">
@@ -5541,15 +5946,21 @@
       <c r="H101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>164</v>
       </c>
       <c r="B102" t="s">
         <v>326</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>327</v>
       </c>
       <c r="D102">
@@ -5571,15 +5982,18 @@
       <c r="O102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>179</v>
       </c>
       <c r="B103" t="s">
         <v>355</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>356</v>
       </c>
       <c r="D103">
@@ -5601,15 +6015,18 @@
       <c r="P103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>180</v>
       </c>
       <c r="B104" t="s">
         <v>357</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>358</v>
       </c>
       <c r="D104">
@@ -5628,15 +6045,18 @@
       <c r="S104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>183</v>
       </c>
       <c r="B105" t="s">
         <v>362</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>363</v>
       </c>
       <c r="D105">
@@ -5667,15 +6087,21 @@
       <c r="P105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V105">
+        <v>1</v>
+      </c>
+      <c r="W105" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>186</v>
       </c>
       <c r="B106" t="s">
         <v>368</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D106">
@@ -5700,15 +6126,18 @@
       <c r="P106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>202</v>
       </c>
       <c r="B107" t="s">
         <v>400</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>401</v>
       </c>
       <c r="D107">
@@ -5727,15 +6156,18 @@
       <c r="M107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>203</v>
       </c>
       <c r="B108" t="s">
         <v>402</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>403</v>
       </c>
       <c r="D108">
@@ -5754,15 +6186,21 @@
       <c r="N108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>204</v>
       </c>
       <c r="B109" t="s">
         <v>404</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>405</v>
       </c>
       <c r="D109">
@@ -5778,15 +6216,18 @@
       <c r="P109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>229</v>
       </c>
       <c r="B110" t="s">
         <v>452</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>453</v>
       </c>
       <c r="D110">
@@ -5799,15 +6240,21 @@
       <c r="J110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>234</v>
       </c>
       <c r="B111" t="s">
         <v>462</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>463</v>
       </c>
       <c r="D111">
@@ -5823,15 +6270,18 @@
       <c r="O111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>240</v>
       </c>
       <c r="B112" t="s">
         <v>475</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>476</v>
       </c>
       <c r="D112">
@@ -5850,15 +6300,18 @@
       <c r="K112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>241</v>
       </c>
       <c r="B113" t="s">
         <v>477</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>478</v>
       </c>
       <c r="D113">
@@ -5877,15 +6330,18 @@
       <c r="P113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>242</v>
       </c>
       <c r="B114" t="s">
         <v>479</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>480</v>
       </c>
       <c r="D114">
@@ -5901,15 +6357,18 @@
       <c r="O114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>243</v>
       </c>
       <c r="B115" t="s">
         <v>481</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>482</v>
       </c>
       <c r="D115">
@@ -5925,15 +6384,18 @@
       <c r="O115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>253</v>
       </c>
       <c r="B116" t="s">
         <v>500</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>501</v>
       </c>
       <c r="D116">
@@ -5952,15 +6414,21 @@
       <c r="M116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V116">
+        <v>1</v>
+      </c>
+      <c r="W116" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>258</v>
       </c>
       <c r="B117" t="s">
         <v>510</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>511</v>
       </c>
       <c r="D117">
@@ -5973,15 +6441,21 @@
       <c r="I117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V117">
+        <v>1</v>
+      </c>
+      <c r="W117" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>262</v>
       </c>
       <c r="B118" t="s">
         <v>518</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>519</v>
       </c>
       <c r="D118">
@@ -6000,15 +6474,18 @@
       <c r="L118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>269</v>
       </c>
       <c r="B119" t="s">
         <v>532</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>533</v>
       </c>
       <c r="D119">
@@ -6033,15 +6510,18 @@
       <c r="P119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>278</v>
       </c>
       <c r="B120" t="s">
         <v>550</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D120">
@@ -6060,15 +6540,21 @@
       <c r="P120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V120">
+        <v>1</v>
+      </c>
+      <c r="W120" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D121">
@@ -6084,15 +6570,18 @@
       <c r="K121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D122">
@@ -6105,15 +6594,18 @@
       <c r="O122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>11</v>
       </c>
       <c r="B123" t="s">
         <v>23</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D123">
@@ -6132,15 +6624,18 @@
       <c r="O123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13</v>
       </c>
       <c r="B124" t="s">
         <v>27</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D124">
@@ -6165,15 +6660,18 @@
       <c r="O124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24</v>
       </c>
       <c r="B125" t="s">
         <v>49</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D125">
@@ -6183,15 +6681,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>26</v>
       </c>
       <c r="B126" t="s">
         <v>52</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D126">
@@ -6204,15 +6705,18 @@
       <c r="O126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>27</v>
       </c>
       <c r="B127" t="s">
         <v>54</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D127">
@@ -6234,15 +6738,18 @@
       <c r="U127" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>28</v>
       </c>
       <c r="B128" t="s">
         <v>57</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D128">
@@ -6261,15 +6768,18 @@
       <c r="O128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>30</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D129">
@@ -6288,15 +6798,21 @@
       <c r="Q129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129">
+        <v>1</v>
+      </c>
+      <c r="W129" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>33</v>
       </c>
       <c r="B130" t="s">
         <v>67</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D130">
@@ -6312,15 +6828,21 @@
       <c r="U130" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V130">
+        <v>1</v>
+      </c>
+      <c r="W130" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
       <c r="B131" t="s">
         <v>81</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D131">
@@ -6345,15 +6867,18 @@
       <c r="O131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>47</v>
       </c>
       <c r="B132" t="s">
         <v>95</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D132">
@@ -6369,15 +6894,21 @@
       <c r="K132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V132">
+        <v>1</v>
+      </c>
+      <c r="W132" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>51</v>
       </c>
       <c r="B133" t="s">
         <v>103</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D133">
@@ -6396,15 +6927,21 @@
       <c r="O133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V133">
+        <v>1</v>
+      </c>
+      <c r="W133" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>52</v>
       </c>
       <c r="B134" t="s">
         <v>105</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D134">
@@ -6420,15 +6957,21 @@
       <c r="N134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V134">
+        <v>1</v>
+      </c>
+      <c r="W134" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>57</v>
       </c>
       <c r="B135" t="s">
         <v>115</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D135">
@@ -6444,15 +6987,21 @@
       <c r="P135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V135">
+        <v>1</v>
+      </c>
+      <c r="W135" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>61</v>
       </c>
       <c r="B136" t="s">
         <v>123</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D136">
@@ -6474,15 +7023,21 @@
       <c r="Q136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V136">
+        <v>1</v>
+      </c>
+      <c r="W136" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>68</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D137">
@@ -6495,15 +7050,21 @@
       <c r="O137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>69</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D138">
@@ -6516,15 +7077,18 @@
       <c r="O138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>70</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D139">
@@ -6546,15 +7110,18 @@
       <c r="S139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>74</v>
       </c>
       <c r="B140" t="s">
         <v>148</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D140">
@@ -6567,15 +7134,18 @@
       <c r="O140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>75</v>
       </c>
       <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D141">
@@ -6588,15 +7158,21 @@
       <c r="O141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V141">
+        <v>1</v>
+      </c>
+      <c r="W141" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>76</v>
       </c>
       <c r="B142" t="s">
         <v>152</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D142">
@@ -6609,15 +7185,21 @@
       <c r="O142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V142">
+        <v>1</v>
+      </c>
+      <c r="W142" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>78</v>
       </c>
       <c r="B143" t="s">
         <v>156</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D143">
@@ -6630,15 +7212,18 @@
       <c r="O143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>82</v>
       </c>
       <c r="B144" t="s">
         <v>164</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D144">
@@ -6651,15 +7236,18 @@
       <c r="R144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>86</v>
       </c>
       <c r="B145" t="s">
         <v>172</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D145">
@@ -6678,15 +7266,18 @@
       <c r="O145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>89</v>
       </c>
       <c r="B146" t="s">
         <v>178</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D146">
@@ -6699,15 +7290,18 @@
       <c r="O146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>90</v>
       </c>
       <c r="B147" t="s">
         <v>180</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D147">
@@ -6720,15 +7314,18 @@
       <c r="O147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>93</v>
       </c>
       <c r="B148" t="s">
         <v>186</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D148">
@@ -6747,15 +7344,18 @@
       <c r="O148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>96</v>
       </c>
       <c r="B149" t="s">
         <v>192</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D149">
@@ -6768,15 +7368,21 @@
       <c r="O149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V149">
+        <v>1</v>
+      </c>
+      <c r="W149" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>97</v>
       </c>
       <c r="B150" t="s">
         <v>194</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D150">
@@ -6795,15 +7401,21 @@
       <c r="O150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>100</v>
       </c>
       <c r="B151" t="s">
         <v>200</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D151">
@@ -6819,15 +7431,21 @@
       <c r="N151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>102</v>
       </c>
       <c r="B152" t="s">
         <v>204</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D152">
@@ -6846,15 +7464,18 @@
       <c r="O152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>103</v>
       </c>
       <c r="B153" t="s">
         <v>206</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D153">
@@ -6867,15 +7488,18 @@
       <c r="O153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>105</v>
       </c>
       <c r="B154" t="s">
         <v>209</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D154">
@@ -6894,15 +7518,18 @@
       <c r="O154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>107</v>
       </c>
       <c r="B155" t="s">
         <v>213</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D155">
@@ -6921,15 +7548,18 @@
       <c r="O155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>110</v>
       </c>
       <c r="B156" t="s">
         <v>219</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D156">
@@ -6942,15 +7572,18 @@
       <c r="O156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>118</v>
       </c>
       <c r="B157" t="s">
         <v>237</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D157">
@@ -6963,15 +7596,18 @@
       <c r="O157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>120</v>
       </c>
       <c r="B158" t="s">
         <v>241</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D158">
@@ -6987,15 +7623,18 @@
       <c r="L158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>122</v>
       </c>
       <c r="B159" t="s">
         <v>245</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D159">
@@ -7008,15 +7647,21 @@
       <c r="R159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V159">
+        <v>1</v>
+      </c>
+      <c r="W159" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>128</v>
       </c>
       <c r="B160" t="s">
         <v>257</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D160">
@@ -7035,15 +7680,18 @@
       <c r="S160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>130</v>
       </c>
       <c r="B161" t="s">
         <v>261</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D161">
@@ -7059,15 +7707,18 @@
       <c r="M161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>131</v>
       </c>
       <c r="B162" t="s">
         <v>263</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D162">
@@ -7086,15 +7737,18 @@
       <c r="O162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>132</v>
       </c>
       <c r="B163" t="s">
         <v>265</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D163">
@@ -7107,15 +7761,18 @@
       <c r="R163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>133</v>
       </c>
       <c r="B164" t="s">
         <v>267</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D164">
@@ -7128,15 +7785,18 @@
       <c r="P164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>141</v>
       </c>
       <c r="B165" t="s">
         <v>283</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D165">
@@ -7146,15 +7806,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>143</v>
       </c>
       <c r="B166" t="s">
         <v>286</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D166">
@@ -7170,15 +7833,18 @@
       <c r="N166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>144</v>
       </c>
       <c r="B167" t="s">
         <v>288</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="1" t="s">
         <v>289</v>
       </c>
       <c r="D167">
@@ -7191,15 +7857,21 @@
       <c r="R167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V167">
+        <v>1</v>
+      </c>
+      <c r="W167" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>147</v>
       </c>
       <c r="B168" t="s">
         <v>294</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D168">
@@ -7215,15 +7887,18 @@
       <c r="R168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>148</v>
       </c>
       <c r="B169" t="s">
         <v>296</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="1" t="s">
         <v>297</v>
       </c>
       <c r="D169">
@@ -7242,15 +7917,18 @@
       <c r="O169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>151</v>
       </c>
       <c r="B170" t="s">
         <v>302</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D170">
@@ -7266,15 +7944,21 @@
       <c r="N170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V170">
+        <v>1</v>
+      </c>
+      <c r="W170" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>153</v>
       </c>
       <c r="B171" t="s">
         <v>306</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="1" t="s">
         <v>307</v>
       </c>
       <c r="D171">
@@ -7287,15 +7971,18 @@
       <c r="O171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>166</v>
       </c>
       <c r="B172" t="s">
         <v>330</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D172">
@@ -7308,15 +7995,18 @@
       <c r="R172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>168</v>
       </c>
       <c r="B173" t="s">
         <v>335</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D173">
@@ -7329,15 +8019,18 @@
       <c r="P173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>171</v>
       </c>
       <c r="B174" t="s">
         <v>341</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="1" t="s">
         <v>342</v>
       </c>
       <c r="D174">
@@ -7356,15 +8049,18 @@
       <c r="O174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>176</v>
       </c>
       <c r="B175" t="s">
         <v>349</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="1" t="s">
         <v>350</v>
       </c>
       <c r="D175">
@@ -7377,15 +8073,18 @@
       <c r="O175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>177</v>
       </c>
       <c r="B176" t="s">
         <v>351</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="1" t="s">
         <v>352</v>
       </c>
       <c r="D176">
@@ -7398,15 +8097,18 @@
       <c r="O176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>182</v>
       </c>
       <c r="B177" t="s">
         <v>360</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D177">
@@ -7425,15 +8127,21 @@
       <c r="O177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V177">
+        <v>1</v>
+      </c>
+      <c r="W177" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>184</v>
       </c>
       <c r="B178" t="s">
         <v>364</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="1" t="s">
         <v>365</v>
       </c>
       <c r="D178">
@@ -7446,15 +8154,18 @@
       <c r="O178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>185</v>
       </c>
       <c r="B179" t="s">
         <v>366</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="1" t="s">
         <v>367</v>
       </c>
       <c r="D179">
@@ -7473,15 +8184,21 @@
       <c r="O179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V179">
+        <v>1</v>
+      </c>
+      <c r="W179" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>187</v>
       </c>
       <c r="B180" t="s">
         <v>370</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="1" t="s">
         <v>371</v>
       </c>
       <c r="D180">
@@ -7500,15 +8217,21 @@
       <c r="O180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V180">
+        <v>1</v>
+      </c>
+      <c r="W180" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>188</v>
       </c>
       <c r="B181" t="s">
         <v>372</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="1" t="s">
         <v>373</v>
       </c>
       <c r="D181">
@@ -7533,15 +8256,18 @@
       <c r="O181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>189</v>
       </c>
       <c r="B182" t="s">
         <v>374</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="1" t="s">
         <v>375</v>
       </c>
       <c r="D182">
@@ -7557,15 +8283,18 @@
       <c r="N182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>191</v>
       </c>
       <c r="B183" t="s">
         <v>378</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D183">
@@ -7578,15 +8307,18 @@
       <c r="R183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>194</v>
       </c>
       <c r="B184" t="s">
         <v>385</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="1" t="s">
         <v>386</v>
       </c>
       <c r="D184">
@@ -7602,15 +8334,21 @@
       <c r="N184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V184">
+        <v>1</v>
+      </c>
+      <c r="W184" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>196</v>
       </c>
       <c r="B185" t="s">
         <v>389</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D185">
@@ -7629,15 +8367,18 @@
       <c r="O185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>197</v>
       </c>
       <c r="B186" t="s">
         <v>391</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="1" t="s">
         <v>392</v>
       </c>
       <c r="D186">
@@ -7650,15 +8391,18 @@
       <c r="O186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>198</v>
       </c>
       <c r="B187" t="s">
         <v>393</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="1" t="s">
         <v>394</v>
       </c>
       <c r="D187">
@@ -7677,15 +8421,18 @@
       <c r="Q187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>199</v>
       </c>
       <c r="B188" t="s">
         <v>395</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D188">
@@ -7698,15 +8445,18 @@
       <c r="O188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>205</v>
       </c>
       <c r="B189" t="s">
         <v>406</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>407</v>
       </c>
       <c r="D189">
@@ -7722,15 +8472,18 @@
       <c r="N189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>208</v>
       </c>
       <c r="B190" t="s">
         <v>411</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="1" t="s">
         <v>412</v>
       </c>
       <c r="D190">
@@ -7746,15 +8499,21 @@
       <c r="N190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V190">
+        <v>1</v>
+      </c>
+      <c r="W190" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>209</v>
       </c>
       <c r="B191" t="s">
         <v>413</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="1" t="s">
         <v>414</v>
       </c>
       <c r="D191">
@@ -7773,15 +8532,18 @@
       <c r="O191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>212</v>
       </c>
       <c r="B192" t="s">
         <v>419</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="1" t="s">
         <v>420</v>
       </c>
       <c r="D192">
@@ -7800,15 +8562,18 @@
       <c r="O192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>216</v>
       </c>
       <c r="B193" t="s">
         <v>427</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="1" t="s">
         <v>428</v>
       </c>
       <c r="D193">
@@ -7824,15 +8589,18 @@
       <c r="L193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>217</v>
       </c>
       <c r="B194" t="s">
         <v>429</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D194">
@@ -7842,15 +8610,18 @@
         <f t="shared" ref="F194:F257" si="3">SUM(G194:J194)-SUM(L194:N194)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>218</v>
       </c>
       <c r="B195" t="s">
         <v>430</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="1" t="s">
         <v>431</v>
       </c>
       <c r="D195">
@@ -7863,15 +8634,18 @@
       <c r="R195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>220</v>
       </c>
       <c r="B196" t="s">
         <v>434</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D196">
@@ -7887,15 +8661,18 @@
       <c r="P196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>223</v>
       </c>
       <c r="B197" t="s">
         <v>440</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="1" t="s">
         <v>441</v>
       </c>
       <c r="D197">
@@ -7914,15 +8691,18 @@
       <c r="O197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>231</v>
       </c>
       <c r="B198" t="s">
         <v>456</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="1" t="s">
         <v>457</v>
       </c>
       <c r="D198">
@@ -7938,15 +8718,21 @@
       <c r="M198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V198">
+        <v>1</v>
+      </c>
+      <c r="W198" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>232</v>
       </c>
       <c r="B199" t="s">
         <v>458</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="1" t="s">
         <v>459</v>
       </c>
       <c r="D199">
@@ -7962,15 +8748,18 @@
       <c r="N199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>235</v>
       </c>
       <c r="B200" t="s">
         <v>464</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="1" t="s">
         <v>465</v>
       </c>
       <c r="D200">
@@ -7983,15 +8772,18 @@
       <c r="S200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>236</v>
       </c>
       <c r="B201" t="s">
         <v>466</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D201">
@@ -8007,15 +8799,18 @@
       <c r="M201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>237</v>
       </c>
       <c r="B202" t="s">
         <v>468</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="1" t="s">
         <v>469</v>
       </c>
       <c r="D202">
@@ -8028,15 +8823,21 @@
       <c r="O202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V202">
+        <v>1</v>
+      </c>
+      <c r="W202" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>239</v>
       </c>
       <c r="B203" t="s">
         <v>473</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="1" t="s">
         <v>474</v>
       </c>
       <c r="D203">
@@ -8055,15 +8856,18 @@
       <c r="O203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>247</v>
       </c>
       <c r="B204" t="s">
         <v>489</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="1" t="s">
         <v>490</v>
       </c>
       <c r="D204">
@@ -8079,15 +8883,18 @@
       <c r="P204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>248</v>
       </c>
       <c r="B205" t="s">
         <v>491</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D205">
@@ -8097,15 +8904,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>249</v>
       </c>
       <c r="B206" t="s">
         <v>492</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D206">
@@ -8124,15 +8934,21 @@
       <c r="O206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V206">
+        <v>1</v>
+      </c>
+      <c r="W206" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>250</v>
       </c>
       <c r="B207" t="s">
         <v>494</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="1" t="s">
         <v>495</v>
       </c>
       <c r="D207">
@@ -8145,15 +8961,21 @@
       <c r="O207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V207">
+        <v>1</v>
+      </c>
+      <c r="W207" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>251</v>
       </c>
       <c r="B208" t="s">
         <v>496</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="1" t="s">
         <v>497</v>
       </c>
       <c r="D208">
@@ -8169,15 +8991,18 @@
       <c r="N208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>256</v>
       </c>
       <c r="B209" t="s">
         <v>506</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="1" t="s">
         <v>507</v>
       </c>
       <c r="D209">
@@ -8193,15 +9018,21 @@
       <c r="L209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V209">
+        <v>1</v>
+      </c>
+      <c r="W209" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>259</v>
       </c>
       <c r="B210" t="s">
         <v>512</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="1" t="s">
         <v>513</v>
       </c>
       <c r="D210">
@@ -8217,15 +9048,18 @@
       <c r="L210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>260</v>
       </c>
       <c r="B211" t="s">
         <v>514</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="1" t="s">
         <v>515</v>
       </c>
       <c r="D211">
@@ -8244,15 +9078,18 @@
       <c r="O211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>261</v>
       </c>
       <c r="B212" t="s">
         <v>516</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D212">
@@ -8265,15 +9102,18 @@
       <c r="O212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>265</v>
       </c>
       <c r="B213" t="s">
         <v>524</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D213">
@@ -8289,15 +9129,18 @@
       <c r="N213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>266</v>
       </c>
       <c r="B214" t="s">
         <v>526</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D214">
@@ -8310,15 +9153,18 @@
       <c r="O214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>271</v>
       </c>
       <c r="B215" t="s">
         <v>536</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="1" t="s">
         <v>537</v>
       </c>
       <c r="D215">
@@ -8331,15 +9177,18 @@
       <c r="O215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>274</v>
       </c>
       <c r="B216" t="s">
         <v>542</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="1" t="s">
         <v>543</v>
       </c>
       <c r="D216">
@@ -8352,15 +9201,18 @@
       <c r="O216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9</v>
       </c>
       <c r="B217" t="s">
         <v>19</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D217">
@@ -8370,15 +9222,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>37</v>
       </c>
       <c r="B218" t="s">
         <v>76</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D218">
@@ -8388,15 +9243,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>48</v>
       </c>
       <c r="B219" t="s">
         <v>97</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D219">
@@ -8406,15 +9264,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>63</v>
       </c>
       <c r="B220" t="s">
         <v>127</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D220">
@@ -8424,15 +9285,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>71</v>
       </c>
       <c r="B221" t="s">
         <v>142</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D221">
@@ -8448,15 +9312,18 @@
       <c r="L221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>104</v>
       </c>
       <c r="B222" t="s">
         <v>208</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D222">
@@ -8466,15 +9333,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>116</v>
       </c>
       <c r="B223" t="s">
         <v>232</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D223">
@@ -8484,15 +9354,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>124</v>
       </c>
       <c r="B224" t="s">
         <v>249</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D224">
@@ -8502,15 +9375,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>152</v>
       </c>
       <c r="B225" t="s">
         <v>304</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="1" t="s">
         <v>305</v>
       </c>
       <c r="D225">
@@ -8520,15 +9396,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>161</v>
       </c>
       <c r="B226" t="s">
         <v>322</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D226">
@@ -8538,15 +9417,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>162</v>
       </c>
       <c r="B227" t="s">
         <v>323</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D227">
@@ -8556,15 +9438,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V227">
+        <v>1</v>
+      </c>
+      <c r="W227" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>163</v>
       </c>
       <c r="B228" t="s">
         <v>325</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D228">
@@ -8574,15 +9462,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>167</v>
       </c>
       <c r="B229" t="s">
         <v>332</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="1" t="s">
         <v>333</v>
       </c>
       <c r="D229">
@@ -8595,15 +9486,18 @@
       <c r="U229" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>172</v>
       </c>
       <c r="B230" t="s">
         <v>343</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D230">
@@ -8613,15 +9507,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>175</v>
       </c>
       <c r="B231" t="s">
         <v>348</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D231">
@@ -8631,15 +9528,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>181</v>
       </c>
       <c r="B232" t="s">
         <v>359</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D232">
@@ -8649,15 +9549,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>200</v>
       </c>
       <c r="B233" t="s">
         <v>397</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D233">
@@ -8667,15 +9570,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>206</v>
       </c>
       <c r="B234" t="s">
         <v>408</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D234">
@@ -8685,15 +9591,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>210</v>
       </c>
       <c r="B235" t="s">
         <v>415</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="1" t="s">
         <v>416</v>
       </c>
       <c r="D235">
@@ -8703,15 +9612,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>224</v>
       </c>
       <c r="B236" t="s">
         <v>442</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="1" t="s">
         <v>443</v>
       </c>
       <c r="D236">
@@ -8721,15 +9633,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>227</v>
       </c>
       <c r="B237" t="s">
         <v>448</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="1" t="s">
         <v>449</v>
       </c>
       <c r="D237">
@@ -8739,15 +9654,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V237">
+        <v>1</v>
+      </c>
+      <c r="W237" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>230</v>
       </c>
       <c r="B238" t="s">
         <v>454</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="1" t="s">
         <v>455</v>
       </c>
       <c r="D238">
@@ -8757,15 +9678,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>282</v>
       </c>
       <c r="B239" t="s">
         <v>558</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D239">
@@ -8775,15 +9699,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D240">
@@ -8802,15 +9729,18 @@
       <c r="N240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>22</v>
       </c>
       <c r="B241" t="s">
         <v>45</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D241">
@@ -8826,15 +9756,18 @@
       <c r="O241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>25</v>
       </c>
       <c r="B242" t="s">
         <v>50</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D242">
@@ -8853,15 +9786,21 @@
       <c r="N242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V242">
+        <v>1</v>
+      </c>
+      <c r="W242" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>29</v>
       </c>
       <c r="B243" t="s">
         <v>59</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D243">
@@ -8883,15 +9822,21 @@
       <c r="O243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V243">
+        <v>1</v>
+      </c>
+      <c r="W243" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>41</v>
       </c>
       <c r="B244" t="s">
         <v>83</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D244">
@@ -8913,15 +9858,21 @@
       <c r="O244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V244">
+        <v>1</v>
+      </c>
+      <c r="W244" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>45</v>
       </c>
       <c r="B245" t="s">
         <v>91</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D245">
@@ -8943,15 +9894,21 @@
       <c r="O245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V245">
+        <v>1</v>
+      </c>
+      <c r="W245" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>49</v>
       </c>
       <c r="B246" t="s">
         <v>99</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D246">
@@ -8973,15 +9930,21 @@
       <c r="O246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V246">
+        <v>1</v>
+      </c>
+      <c r="W246" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>50</v>
       </c>
       <c r="B247" t="s">
         <v>101</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D247">
@@ -9003,15 +9966,18 @@
       <c r="O247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>53</v>
       </c>
       <c r="B248" t="s">
         <v>107</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D248">
@@ -9030,15 +9996,18 @@
       <c r="N248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>54</v>
       </c>
       <c r="B249" t="s">
         <v>109</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D249">
@@ -9057,15 +10026,18 @@
       <c r="N249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>55</v>
       </c>
       <c r="B250" t="s">
         <v>111</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D250">
@@ -9087,15 +10059,18 @@
       <c r="O250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>56</v>
       </c>
       <c r="B251" t="s">
         <v>113</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D251">
@@ -9117,15 +10092,18 @@
       <c r="O251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>64</v>
       </c>
       <c r="B252" t="s">
         <v>128</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D252">
@@ -9147,15 +10125,18 @@
       <c r="Q252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>65</v>
       </c>
       <c r="B253" t="s">
         <v>130</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D253">
@@ -9177,15 +10158,21 @@
       <c r="O253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V253">
+        <v>1</v>
+      </c>
+      <c r="W253" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>80</v>
       </c>
       <c r="B254" t="s">
         <v>160</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D254">
@@ -9201,15 +10188,18 @@
       <c r="O254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>88</v>
       </c>
       <c r="B255" t="s">
         <v>176</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D255">
@@ -9225,15 +10215,18 @@
       <c r="O255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>108</v>
       </c>
       <c r="B256" t="s">
         <v>215</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D256">
@@ -9252,15 +10245,18 @@
       <c r="N256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>112</v>
       </c>
       <c r="B257" t="s">
         <v>223</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D257">
@@ -9282,22 +10278,25 @@
       <c r="O257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>123</v>
       </c>
       <c r="B258" t="s">
         <v>247</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258:F321" si="4">SUM(G258:J258)-SUM(L258:N258)</f>
+        <f t="shared" ref="F258:F284" si="4">SUM(G258:J258)-SUM(L258:N258)</f>
         <v>0</v>
       </c>
       <c r="H258">
@@ -9312,15 +10311,18 @@
       <c r="O258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>134</v>
       </c>
       <c r="B259" t="s">
         <v>269</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D259">
@@ -9342,15 +10344,18 @@
       <c r="O259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>146</v>
       </c>
       <c r="B260" t="s">
         <v>292</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="1" t="s">
         <v>293</v>
       </c>
       <c r="D260">
@@ -9372,15 +10377,18 @@
       <c r="O260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>150</v>
       </c>
       <c r="B261" t="s">
         <v>300</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D261">
@@ -9396,15 +10404,18 @@
       <c r="O261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>157</v>
       </c>
       <c r="B262" t="s">
         <v>314</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D262">
@@ -9417,15 +10428,18 @@
       <c r="L262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>158</v>
       </c>
       <c r="B263" t="s">
         <v>316</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="1" t="s">
         <v>317</v>
       </c>
       <c r="D263">
@@ -9438,15 +10452,18 @@
       <c r="N263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>169</v>
       </c>
       <c r="B264" t="s">
         <v>337</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D264">
@@ -9462,15 +10479,18 @@
       <c r="O264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>173</v>
       </c>
       <c r="B265" t="s">
         <v>344</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D265">
@@ -9483,15 +10503,18 @@
       <c r="N265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>174</v>
       </c>
       <c r="B266" t="s">
         <v>346</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="1" t="s">
         <v>347</v>
       </c>
       <c r="D266">
@@ -9513,15 +10536,18 @@
       <c r="O266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>192</v>
       </c>
       <c r="B267" t="s">
         <v>380</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="1" t="s">
         <v>381</v>
       </c>
       <c r="D267">
@@ -9543,15 +10569,18 @@
       <c r="O267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>195</v>
       </c>
       <c r="B268" t="s">
         <v>387</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="1" t="s">
         <v>388</v>
       </c>
       <c r="D268">
@@ -9567,15 +10596,18 @@
       <c r="O268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>201</v>
       </c>
       <c r="B269" t="s">
         <v>398</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="1" t="s">
         <v>399</v>
       </c>
       <c r="D269">
@@ -9591,15 +10623,21 @@
       <c r="O269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V269">
+        <v>1</v>
+      </c>
+      <c r="W269" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>213</v>
       </c>
       <c r="B270" t="s">
         <v>421</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="1" t="s">
         <v>422</v>
       </c>
       <c r="D270">
@@ -9612,15 +10650,21 @@
       <c r="K270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V270">
+        <v>1</v>
+      </c>
+      <c r="W270" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>222</v>
       </c>
       <c r="B271" t="s">
         <v>438</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="1" t="s">
         <v>439</v>
       </c>
       <c r="D271">
@@ -9642,15 +10686,18 @@
       <c r="S271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>233</v>
       </c>
       <c r="B272" t="s">
         <v>460</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="1" t="s">
         <v>461</v>
       </c>
       <c r="D272">
@@ -9672,15 +10719,18 @@
       <c r="O272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>246</v>
       </c>
       <c r="B273" t="s">
         <v>487</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="1" t="s">
         <v>488</v>
       </c>
       <c r="D273">
@@ -9702,15 +10752,18 @@
       <c r="O273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>252</v>
       </c>
       <c r="B274" t="s">
         <v>498</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="1" t="s">
         <v>499</v>
       </c>
       <c r="D274">
@@ -9723,15 +10776,18 @@
       <c r="N274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>272</v>
       </c>
       <c r="B275" t="s">
         <v>538</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D275">
@@ -9756,15 +10812,18 @@
       <c r="N275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>273</v>
       </c>
       <c r="B276" t="s">
         <v>540</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="1" t="s">
         <v>541</v>
       </c>
       <c r="D276">
@@ -9783,15 +10842,21 @@
       <c r="N276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V276">
+        <v>1</v>
+      </c>
+      <c r="W276" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>281</v>
       </c>
       <c r="B277" t="s">
         <v>556</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D277">
@@ -9810,15 +10875,18 @@
       <c r="N277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D278">
@@ -9834,15 +10902,18 @@
       <c r="N278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>35</v>
       </c>
       <c r="B279" t="s">
         <v>72</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D279">
@@ -9861,15 +10932,18 @@
       <c r="O279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>59</v>
       </c>
       <c r="B280" t="s">
         <v>119</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D280">
@@ -9894,15 +10968,18 @@
       <c r="O280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>126</v>
       </c>
       <c r="B281" t="s">
         <v>253</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D281">
@@ -9918,15 +10995,18 @@
       <c r="N281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>135</v>
       </c>
       <c r="B282" t="s">
         <v>271</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D282">
@@ -9945,15 +11025,21 @@
       <c r="P282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V282">
+        <v>1</v>
+      </c>
+      <c r="W282" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>15</v>
       </c>
       <c r="B283" t="s">
         <v>31</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D283">
@@ -9975,15 +11061,18 @@
       <c r="O283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>38</v>
       </c>
       <c r="B284" t="s">
         <v>77</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D284">
@@ -10005,19 +11094,18 @@
       <c r="Q284">
         <v>1</v>
       </c>
+      <c r="V284">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U284" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U284">
-      <sortCondition descending="1" ref="F1:F284"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:W284"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
